--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM value set includes the codes for the laboratory test results to complete the leading code with an additional code.</t>
+    <t>The "CH ELM Results Geni Spec" material group provides a curated set of codes representing specific materials. Each code within this group is selected to ensure consistency and accuracy for medical coding related to the primary LOINC codes. Clients using the "CH ELM Results Geni Spec" group should refer to the provided codes to ensure they capture and report material information correctly and consistently.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,46 +105,64 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>119396006</t>
+  </si>
+  <si>
+    <t>Specimen from endometrium (specimen)</t>
+  </si>
+  <si>
+    <t>119324002</t>
+  </si>
+  <si>
+    <t>Specimen of unknown material (specimen)</t>
+  </si>
+  <si>
     <t>119395005</t>
   </si>
   <si>
-    <t>Specimen from uterine cervix</t>
+    <t>Specimen from uterine cervix (specimen)</t>
   </si>
   <si>
     <t>258527002</t>
   </si>
   <si>
-    <t>Anal swab</t>
-  </si>
-  <si>
-    <t>258508008</t>
-  </si>
-  <si>
-    <t>Genital swab</t>
-  </si>
-  <si>
-    <t>258520000</t>
-  </si>
-  <si>
-    <t>Vaginal swab</t>
+    <t>Anal swab (specimen)</t>
+  </si>
+  <si>
+    <t>122575003</t>
+  </si>
+  <si>
+    <t>Urine specimen (specimen)</t>
+  </si>
+  <si>
+    <t>257261003</t>
+  </si>
+  <si>
+    <t>Swab (specimen)</t>
   </si>
   <si>
     <t>119393003</t>
   </si>
   <si>
-    <t>Specimen from urethra</t>
+    <t>Specimen from urethra (specimen)</t>
   </si>
   <si>
     <t>119347001</t>
   </si>
   <si>
-    <t>Seminal fluid</t>
-  </si>
-  <si>
-    <t>119396006</t>
-  </si>
-  <si>
-    <t>Specimen from endometrium</t>
+    <t>Seminal fluid specimen (specimen)</t>
+  </si>
+  <si>
+    <t>119394009</t>
+  </si>
+  <si>
+    <t>Specimen from vagina (specimen)</t>
+  </si>
+  <si>
+    <t>119344008</t>
+  </si>
+  <si>
+    <t>Specimen from genital system (specimen)</t>
   </si>
   <si>
     <t/>
@@ -422,7 +440,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -501,15 +519,39 @@
         <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-geni-spec.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
